--- a/Data/Transitions/19571967Translation.xlsx
+++ b/Data/Transitions/19571967Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="664">
   <si>
     <t>id</t>
   </si>
@@ -463,7 +463,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -664,7 +664,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1751,9 +1751,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3997,7 +3994,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>579</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4008,7 +4005,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4019,7 +4016,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4206,7 +4203,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4217,7 +4214,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4261,7 +4258,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4272,7 +4269,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4316,7 +4313,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4327,7 +4324,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4415,7 +4412,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4426,7 +4423,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4547,7 +4544,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4569,7 +4566,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4591,7 +4588,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4613,7 +4610,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4734,7 +4731,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>579</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4778,7 +4775,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4789,7 +4786,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4811,7 +4808,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4866,7 +4863,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4932,7 +4929,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4987,7 +4984,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5086,7 +5083,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5152,7 +5149,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5196,7 +5193,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5218,7 +5215,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5229,7 +5226,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5240,7 +5237,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5383,7 +5380,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5427,7 +5424,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5438,7 +5435,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5526,7 +5523,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5537,7 +5534,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5614,7 +5611,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5702,7 +5699,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5735,7 +5732,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5757,7 +5754,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5790,7 +5787,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5812,7 +5809,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5834,7 +5831,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5856,7 +5853,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5911,7 +5908,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5944,7 +5941,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6065,7 +6062,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6076,7 +6073,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6120,7 +6117,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6142,7 +6139,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6241,7 +6238,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6351,7 +6348,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6450,7 +6447,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6461,7 +6458,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6472,7 +6469,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6483,7 +6480,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6571,7 +6568,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6637,7 +6634,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6648,7 +6645,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6692,7 +6689,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6769,7 +6766,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6868,7 +6865,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7176,7 +7173,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7231,7 +7228,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7253,7 +7250,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7264,7 +7261,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7275,7 +7272,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7308,7 +7305,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7330,7 +7327,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7341,7 +7338,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7352,7 +7349,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7385,7 +7382,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7517,7 +7514,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7572,7 +7569,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7605,7 +7602,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7649,7 +7646,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7671,7 +7668,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7770,7 +7767,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7781,7 +7778,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7792,7 +7789,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7836,7 +7833,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7913,7 +7910,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7946,7 +7943,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7979,7 +7976,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8067,7 +8064,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8089,7 +8086,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8111,7 +8108,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8122,7 +8119,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8144,7 +8141,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8166,7 +8163,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="528" spans="1:3">
